--- a/biology/Médecine/Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin)/Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin).xlsx
+++ b/biology/Médecine/Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin)/Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint_Jean_de_Dieu_de_Tangui%C3%A9ta_(B%C3%A9nin)</t>
+          <t>Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Saint Jean de Dieu de Tanguiéta créé en 1970 avec 60 lits, est un hôpital situé à Tanguitéta, au Bénin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint_Jean_de_Dieu_de_Tangui%C3%A9ta_(B%C3%A9nin)</t>
+          <t>Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire de l’hôpital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est créé dans la philosophie de l'Ordre hospitalier de Saint-Jean-de-Dieu.
 Créé en 1970 avec 60 lits en 1970, l'hôpital est situé à 15 heures de route de Cotonou dans la région de l’Atacora. L'hôpital démarre avec deux frères de Saint Jean de Dieu, quatre religieuses espagnoles et un médecin italien.
-En 1996, la coopération internationale est poussée par le Docteur Jean Vergès, ancien chirurgien urologue à la Clinique Oudinot et de son épouse Anny, pharmacienne[1].
-En 2018, le Frère Florent, médecin d'origine italienne, dirige hôpital depuis près de 50 ans[2].
-En 2021, l’hôpital dispose de 250 lits et d’un centre de récupération nutritionnelle avec sept frères, cinq sœurs dont deux béninoises, 14 médecins dont certains spécialisés, notamment en chirurgie et gynéco-obstétrique[3].
+En 1996, la coopération internationale est poussée par le Docteur Jean Vergès, ancien chirurgien urologue à la Clinique Oudinot et de son épouse Anny, pharmacienne.
+En 2018, le Frère Florent, médecin d'origine italienne, dirige hôpital depuis près de 50 ans.
+En 2021, l’hôpital dispose de 250 lits et d’un centre de récupération nutritionnelle avec sept frères, cinq sœurs dont deux béninoises, 14 médecins dont certains spécialisés, notamment en chirurgie et gynéco-obstétrique.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint_Jean_de_Dieu_de_Tangui%C3%A9ta_(B%C3%A9nin)</t>
+          <t>Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Services de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les soins s’adressent à des patients pratiquement dépourvus de moyens. Il s'agit de césarienne, de réparation de perforation intestinale, de traumatismes ou de morsures de serpents[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les soins s’adressent à des patients pratiquement dépourvus de moyens. Il s'agit de césarienne, de réparation de perforation intestinale, de traumatismes ou de morsures de serpents.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint_Jean_de_Dieu_de_Tangui%C3%A9ta_(B%C3%A9nin)</t>
+          <t>Hôpital_Saint_Jean_de_Dieu_de_Tanguiéta_(Bénin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Partenariats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1990, l'hôpital du Jura participe régulièrement à la vie de l'hôpital béninois soit à travers des missions, des formations ou des envois de matériels[4].
-Depuis 1996, Charles-Henry Rochat de la Clinique Générale-Beaulieu intervient annuellement pour réparer des fistules obstétricales[5],[6].
-Depuis 2014, l'hôpital du Valais en Suisse intervient annuellement à travers des missions à l'hôpital Saint Jean de Dieu de Tanguiéta[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1990, l'hôpital du Jura participe régulièrement à la vie de l'hôpital béninois soit à travers des missions, des formations ou des envois de matériels.
+Depuis 1996, Charles-Henry Rochat de la Clinique Générale-Beaulieu intervient annuellement pour réparer des fistules obstétricales,.
+Depuis 2014, l'hôpital du Valais en Suisse intervient annuellement à travers des missions à l'hôpital Saint Jean de Dieu de Tanguiéta.
 </t>
         </is>
       </c>
